--- a/supply_records/alloc/DOH_ROXIII_IMS_PTR_ALLOCATION_LIST_FORMAT.xlsx
+++ b/supply_records/alloc/DOH_ROXIII_IMS_PTR_ALLOCATION_LIST_FORMAT.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jude Samuel Escol\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DOH_ROXIII_IMS\supply_records\alloc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768A3190-8CD4-468F-9D90-8BFC2B3BA64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73E3A90-B77E-4C09-9671-4B781661346E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93C1104E-2A53-4A34-930E-C2A4710A0CEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALLOC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FROM</t>
   </si>
@@ -65,8 +57,20 @@
     <t>TRANSFER REASON</t>
   </si>
   <si>
+    <t>STORAGE TEMP</t>
+  </si>
+  <si>
+    <t>TRANSPORT TEMP</t>
+  </si>
+  <si>
+    <t>PROPERTY NO</t>
+  </si>
+  <si>
+    <t>PTR ALLOCATION LIST FORMAT FOR INVENTORY SYSTEM UPLOADING OF ISSUANCES</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Allocation for </t>
+      <t xml:space="preserve">Allocation of </t>
     </r>
     <r>
       <rPr>
@@ -78,27 +82,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_________(item names)_________</t>
+      <t>_________(Item name)_________</t>
     </r>
   </si>
   <si>
-    <t>STORAGE TEMP</t>
-  </si>
-  <si>
-    <t>TRANSPORT TEMP</t>
-  </si>
-  <si>
-    <t>PROPERTY NO</t>
-  </si>
-  <si>
-    <t>PTR ALLOCATION LIST FORMAT FOR INVENTORY SYSTEM UPLOADING OF ISSUANCES</t>
+    <t>PROGRAM:KM-ICT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +125,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF575757"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -179,11 +180,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,6 +200,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -227,8 +234,8 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
@@ -621,16 +628,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5F6756-A0FC-410B-A6CC-AAB93D434158}">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
@@ -696,12 +703,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -715,7 +722,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -728,240 +735,795 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="A7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:F23" xr:uid="{6BA3DAF8-5057-4247-92B4-22CC96F35940}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:F69" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"At room temperature not exceeding 30°,Keep between +2°c and +8°c (in a refrigerator)"</formula1>
     </dataValidation>
   </dataValidations>
